--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1830143.100518089</v>
+        <v>1929846.054039015</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11402640.05389761</v>
+        <v>12054037.64689931</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3620570.55387065</v>
+        <v>4181370.788344816</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8899588.535200849</v>
+        <v>8670135.291283812</v>
       </c>
     </row>
     <row r="11">
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,58 +1220,58 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1303,17 +1305,17 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="R10" t="n">
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>85.85883363046862</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>350.8376932199384</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>48.37445137896816</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>332.9457957629329</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>266.7739204714568</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>114.2656173771021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>119.8962688081998</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>205.9213958446538</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.23168924578721</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>64.35399178585138</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>265.224061866369</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291.322702556027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>116.93881574185</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>1.306988578406781</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.20620029662123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>128.5903119004996</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>191.6758472350571</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.6357257071007</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>221.7465305550411</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.91763484385194</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2612,10 +2614,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>31.73725475703721</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>74.7576914549238</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>77.4263979403581</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2843,16 +2845,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589016</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>137.2463122730978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>16.33302702637999</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>63.26492205174045</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>156.1900722406605</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>134.9249912545486</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>370.5023353192281</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>52.68487312450228</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3481,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>210.1089145855752</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>187.6301673233151</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>142.5708055487661</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3670,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>151.9718766515374</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.7000303319008</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>296.0128616828167</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>242.8528437613039</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>73.02167259953974</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>7.601081015447462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,19 +3982,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>123.5007337965309</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>54.34809064563531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>27.24310651562579</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.230025484176902</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4805,16 +4807,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
         <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
@@ -4829,19 +4831,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
         <v>14.44108515774386</v>
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C9" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D9" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
         <v>0.5500836593369149</v>
@@ -4881,22 +4883,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="M9" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>20.69689768255142</v>
       </c>
-      <c r="N9" t="n">
-        <v>27.50418296684575</v>
-      </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4907,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V9" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="10">
@@ -4951,58 +4953,58 @@
         <v>7.495584408540386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R10" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S10" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T10" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U10" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W10" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X10" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y10" t="n">
         <v>7.495584408540386</v>
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.583838282732</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5051,7 +5053,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3128.589058560035</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993393</v>
+        <v>3128.589058560035</v>
       </c>
       <c r="V11" t="n">
-        <v>2788.565186649822</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W11" t="n">
-        <v>2788.565186649822</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X11" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y11" t="n">
-        <v>2434.183678346854</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836212</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836212</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836212</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,10 +5220,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
         <v>1645.778206672847</v>
@@ -5233,16 +5235,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271513</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836212</v>
+        <v>313.9544330261738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.942324366272</v>
+        <v>1998.104470293511</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.942324366272</v>
+        <v>1629.141953353099</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1270.876254746349</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V14" t="n">
-        <v>2692.316069873278</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W14" t="n">
-        <v>2339.547414603163</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X14" t="n">
-        <v>1966.081656342083</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y14" t="n">
-        <v>1575.942324366272</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.044275313594</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>331.5406302391191</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2038.144201386632</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C17" t="n">
-        <v>1669.181684446221</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D17" t="n">
-        <v>1310.91598583947</v>
+        <v>731.582875291813</v>
       </c>
       <c r="E17" t="n">
-        <v>925.127733241226</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>514.1418284516185</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>99.06937829661496</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>99.06937829661496</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
@@ -5543,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450754</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.744041450754</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y17" t="n">
-        <v>2424.744041450754</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>690.674942710575</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C19" t="n">
-        <v>690.674942710575</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D19" t="n">
-        <v>690.674942710575</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>542.7618491281819</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408147</v>
+        <v>612.3211433678175</v>
       </c>
       <c r="X19" t="n">
-        <v>872.3234075408147</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y19" t="n">
-        <v>872.3234075408147</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1267.635416552713</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.635416552713</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>909.3697179459625</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,10 +5764,10 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5780,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520489</v>
+        <v>3097.195137235408</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176918</v>
+        <v>2766.132249891837</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.505862906803</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.040104645724</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.900772669912</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5832,16 +5834,16 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>624.6477645191717</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="C22" t="n">
-        <v>624.6477645191717</v>
+        <v>676.5553714031494</v>
       </c>
       <c r="D22" t="n">
-        <v>624.6477645191717</v>
+        <v>676.5553714031494</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>528.6422778207562</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>381.7523303228459</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>214.0494936975648</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>67.83230691542261</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5911,16 +5913,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5932,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W22" t="n">
-        <v>1094.090022971289</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X22" t="n">
-        <v>866.1004720732712</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="Y22" t="n">
-        <v>806.2962293494114</v>
+        <v>845.4915543310562</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1561.13247157855</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C23" t="n">
-        <v>1561.13247157855</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D23" t="n">
-        <v>1202.866772971799</v>
+        <v>879.773173361559</v>
       </c>
       <c r="E23" t="n">
-        <v>817.078520373555</v>
+        <v>493.9849207633147</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792696</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.483610522581</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X23" t="n">
-        <v>2337.871643618483</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y23" t="n">
-        <v>1947.732311642671</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218343</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>477.7578170212613</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C25" t="n">
-        <v>477.7578170212613</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D25" t="n">
-        <v>477.7578170212613</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E25" t="n">
-        <v>477.7578170212613</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218343</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>812.5736815556431</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>812.5736815556431</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>659.406281851501</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1278.358723975039</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.358723975039</v>
+        <v>1015.867262682233</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1015.867262682233</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>630.079010083989</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>630.079010083989</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6251,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3240.840533888108</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3034.86278627233</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>2781.332309546166</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2781.332309546166</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2428.563654276052</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X26" t="n">
-        <v>2055.097896014972</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y26" t="n">
-        <v>1664.958564039161</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.0249360836216</v>
+        <v>973.5548741173881</v>
       </c>
       <c r="C28" t="n">
-        <v>142.0249360836216</v>
+        <v>804.6186911894812</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0249360836216</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>142.0249360836216</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218342</v>
@@ -6406,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X28" t="n">
-        <v>362.8175152271517</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0249360836216</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>2949.638265046256</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>3496.417082105038</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>3999.389552984375</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>4394.163919341553</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3527.225701553763</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C31" t="n">
-        <v>3358.289518625857</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D31" t="n">
-        <v>3358.289518625857</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E31" t="n">
-        <v>3210.376425043463</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="F31" t="n">
-        <v>3063.486477545553</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="G31" t="n">
-        <v>3063.486477545553</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246546</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816072</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>4075.496355941716</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>3936.863717282021</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>3936.863717282021</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>3708.874166384003</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y31" t="n">
-        <v>3708.874166384003</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>498.0825736845405</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>498.0825736845405</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>83.01012352953694</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>83.01012352953694</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>3070.887536710053</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>3573.86000758939</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T34" t="n">
-        <v>1892.439504436279</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U34" t="n">
-        <v>1603.336637561923</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V34" t="n">
-        <v>1348.652149356036</v>
+        <v>1679.69634110798</v>
       </c>
       <c r="W34" t="n">
-        <v>1348.652149356036</v>
+        <v>1390.279171071019</v>
       </c>
       <c r="X34" t="n">
-        <v>1120.662598458018</v>
+        <v>1162.289620173002</v>
       </c>
       <c r="Y34" t="n">
-        <v>1120.662598458018</v>
+        <v>941.4970410294717</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2123.189610021304</v>
+        <v>2266.429418274562</v>
       </c>
       <c r="C35" t="n">
-        <v>1754.227093080892</v>
+        <v>1897.46690133415</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1539.2012027274</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>1153.412950129155</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W35" t="n">
-        <v>2513.328941997116</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X35" t="n">
-        <v>2513.328941997116</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y35" t="n">
-        <v>2123.189610021304</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="36">
@@ -7005,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1931.192241120437</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="C37" t="n">
-        <v>1762.25605819253</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D37" t="n">
-        <v>1762.25605819253</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E37" t="n">
-        <v>1709.039014632427</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F37" t="n">
-        <v>1562.149067134517</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G37" t="n">
-        <v>1562.149067134517</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134517</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435998</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005524</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131167</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V37" t="n">
-        <v>2623.050455131167</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="W37" t="n">
-        <v>2333.633285094207</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="X37" t="n">
-        <v>2333.633285094207</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="Y37" t="n">
-        <v>2112.840705950677</v>
+        <v>2320.988771034578</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.62132134232</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1396.478739875897</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>1010.690487277653</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7172,16 +7174,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3181.594906913448</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3181.594906913448</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3181.594906913448</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W38" t="n">
-        <v>2828.826251643334</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X38" t="n">
-        <v>2455.360493382254</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y38" t="n">
-        <v>2065.221161406442</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>826.5851666348717</v>
+        <v>847.3980557622425</v>
       </c>
       <c r="C40" t="n">
-        <v>657.6489837069648</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D40" t="n">
-        <v>507.5323442946291</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E40" t="n">
-        <v>359.619250712236</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F40" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G40" t="n">
         <v>212.7293032143257</v>
@@ -7357,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1773.787601975829</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1552.020986545355</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U40" t="n">
-        <v>1262.918119670998</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V40" t="n">
-        <v>1008.233631465111</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="W40" t="n">
-        <v>1008.233631465111</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="X40" t="n">
-        <v>1008.233631465111</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="Y40" t="n">
-        <v>1008.233631465111</v>
+        <v>1029.046520592482</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1930.094988518961</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C41" t="n">
-        <v>1561.13247157855</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D41" t="n">
-        <v>1202.866772971799</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="E41" t="n">
-        <v>817.078520373555</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
@@ -7418,7 +7420,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7439,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>3080.299918819975</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>3080.299918819975</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X41" t="n">
-        <v>2706.834160558895</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y41" t="n">
-        <v>2316.694828583083</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.8928126690276</v>
+        <v>917.9306290998774</v>
       </c>
       <c r="C43" t="n">
-        <v>241.8928126690276</v>
+        <v>748.9944461719705</v>
       </c>
       <c r="D43" t="n">
-        <v>241.8928126690276</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E43" t="n">
-        <v>241.8928126690276</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408147</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X43" t="n">
-        <v>644.3338566427974</v>
+        <v>1320.371673073647</v>
       </c>
       <c r="Y43" t="n">
-        <v>423.5412774992673</v>
+        <v>1099.579093930117</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1160.843385122603</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.879858037302</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2663.816970693731</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.546497866151</v>
+        <v>2311.048315423617</v>
       </c>
       <c r="X44" t="n">
-        <v>2489.080739605071</v>
+        <v>1937.582557162537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1547.443225186725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.4929502983425</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C46" t="n">
-        <v>754.9746608886195</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D46" t="n">
-        <v>604.8580214762837</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E46" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F46" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7833,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1832.1812368216</v>
       </c>
       <c r="T46" t="n">
-        <v>1615.697475415547</v>
+        <v>1832.1812368216</v>
       </c>
       <c r="U46" t="n">
-        <v>1326.59460854119</v>
+        <v>1832.1812368216</v>
       </c>
       <c r="V46" t="n">
-        <v>1071.910120335303</v>
+        <v>1577.496748615713</v>
       </c>
       <c r="W46" t="n">
-        <v>782.4929502983425</v>
+        <v>1288.079578578752</v>
       </c>
       <c r="X46" t="n">
-        <v>782.4929502983425</v>
+        <v>1060.090027680735</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.4929502983425</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>135.3089255351315</v>
+        <v>115.4149081609423</v>
       </c>
       <c r="K2" t="n">
-        <v>151.5419756253485</v>
+        <v>121.726000573439</v>
       </c>
       <c r="L2" t="n">
-        <v>150.7267140941594</v>
+        <v>113.7373605334018</v>
       </c>
       <c r="M2" t="n">
-        <v>135.7231806067528</v>
+        <v>94.56539768499451</v>
       </c>
       <c r="N2" t="n">
-        <v>133.2589110593152</v>
+        <v>91.43515218074552</v>
       </c>
       <c r="O2" t="n">
-        <v>139.3025717914909</v>
+        <v>99.80958226463002</v>
       </c>
       <c r="P2" t="n">
-        <v>153.7410179622614</v>
+        <v>120.0346651036907</v>
       </c>
       <c r="Q2" t="n">
-        <v>164.112441784501</v>
+        <v>138.8003745232222</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.59699530897039</v>
+        <v>87.74825484856622</v>
       </c>
       <c r="K3" t="n">
-        <v>91.2828611601301</v>
+        <v>71.03147647368561</v>
       </c>
       <c r="L3" t="n">
-        <v>75.95062622327256</v>
+        <v>48.72014033625207</v>
       </c>
       <c r="M3" t="n">
-        <v>69.07840634975544</v>
+        <v>37.30171369864597</v>
       </c>
       <c r="N3" t="n">
-        <v>56.352519433037</v>
+        <v>23.73479228195269</v>
       </c>
       <c r="O3" t="n">
-        <v>73.99578349736905</v>
+        <v>44.15693554437034</v>
       </c>
       <c r="P3" t="n">
-        <v>78.91648958083221</v>
+        <v>54.96818345924652</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.1770140918526</v>
+        <v>87.16820566329295</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9293080916207</v>
+        <v>88.71375290794857</v>
       </c>
       <c r="L4" t="n">
-        <v>98.94688914582582</v>
+        <v>83.31518417917687</v>
       </c>
       <c r="M4" t="n">
-        <v>101.0344262628847</v>
+        <v>84.55298510231677</v>
       </c>
       <c r="N4" t="n">
-        <v>90.69515857490677</v>
+        <v>74.60560924730484</v>
       </c>
       <c r="O4" t="n">
-        <v>104.289930014678</v>
+        <v>89.42862704161587</v>
       </c>
       <c r="P4" t="n">
-        <v>108.4925680671538</v>
+        <v>95.77615600427634</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8453,19 +8455,19 @@
         <v>87.75711748056034</v>
       </c>
       <c r="K8" t="n">
-        <v>80.27414188615768</v>
+        <v>87.15018762786912</v>
       </c>
       <c r="L8" t="n">
         <v>69.18871014946336</v>
       </c>
       <c r="M8" t="n">
-        <v>44.22156050876461</v>
+        <v>37.34551476705317</v>
       </c>
       <c r="N8" t="n">
-        <v>39.88761744738939</v>
+        <v>33.28939173564609</v>
       </c>
       <c r="O8" t="n">
-        <v>44.90418949596821</v>
+        <v>51.50241520771151</v>
       </c>
       <c r="P8" t="n">
         <v>73.17418265679427</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>78.15150993587676</v>
+        <v>71.27546419416532</v>
       </c>
       <c r="K9" t="n">
         <v>42.87685349782204</v>
       </c>
       <c r="L9" t="n">
-        <v>17.46100096066814</v>
+        <v>17.46100096066813</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>2.673277653404995</v>
       </c>
       <c r="P9" t="n">
-        <v>21.67389073786379</v>
+        <v>28.54993647957522</v>
       </c>
       <c r="Q9" t="n">
         <v>64.91185269891416</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>78.60704137344501</v>
+        <v>71.73099563173358</v>
       </c>
       <c r="L10" t="n">
-        <v>68.45914756601975</v>
+        <v>68.1813275360516</v>
       </c>
       <c r="M10" t="n">
-        <v>68.23777703363946</v>
+        <v>68.51559706360761</v>
       </c>
       <c r="N10" t="n">
-        <v>52.23700570813995</v>
+        <v>59.11305144985138</v>
       </c>
       <c r="O10" t="n">
-        <v>68.76760120980124</v>
+        <v>75.64364695151268</v>
       </c>
       <c r="P10" t="n">
-        <v>84.97312484436304</v>
+        <v>78.09707910265161</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.64153443578746</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>229.1543674071809</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.76385501033757</v>
+        <v>14.52945960098911</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>118.0591365091515</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>35.4002454361152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>71.67627119164581</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>170.2102019731266</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>48.98457430932888</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -23552,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>60.97833799867811</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>137.8720259467259</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>98.688384543895</v>
       </c>
     </row>
     <row r="17">
@@ -23738,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>176.008974227608</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>9.345240527138742</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>81.06705623707987</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>21.29893647022203</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.41113910745361</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>134.056356217052</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>95.0454318314313</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.3784530554736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24215,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>278.2857338412119</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>178.0552534434119</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>126.4862188122807</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.94892764499411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>189.1751950984123</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>25.27012694432389</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>116.8782182611751</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>21.59472895491429</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>277.2566436803248</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24731,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>19.03887597603351</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>114.8913310507302</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>25.24390274654596</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>156.2840272244287</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>95.94757108316747</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>219.7580503661344</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>36.37371042248338</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>93.7490895220669</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>42.02872873825282</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25400,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>219.2458784183963</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>61.34716459085399</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>37.79714867990447</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.43761299192724</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>114.9088639706368</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>84.89941470883099</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>75.59380041867261</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>137.8199670074838</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>127.4944381623711</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>331.8898480104183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>140.0037145830021</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>184.538999847265</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>894024.6418438792</v>
+        <v>882169.2786017628</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708193.2123655723</v>
+        <v>708193.2123655725</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708193.2123655723</v>
+        <v>708193.2123655722</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708193.2123655723</v>
+        <v>708193.2123655722</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>866084.3982868448</v>
+        <v>708193.2123655723</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>866084.3982868451</v>
+        <v>708193.2123655723</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708193.2123655722</v>
+        <v>708193.2123655725</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708193.2123655722</v>
+        <v>708193.2123655723</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594006.4444792048</v>
+        <v>594019.9714382776</v>
       </c>
       <c r="C2" t="n">
         <v>594029.8145386983</v>
@@ -26320,37 +26322,37 @@
         <v>594832.4105830896</v>
       </c>
       <c r="E2" t="n">
+        <v>494445.7935078347</v>
+      </c>
+      <c r="F2" t="n">
+        <v>494445.7935078349</v>
+      </c>
+      <c r="G2" t="n">
         <v>494445.7935078348</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>494445.7935078347</v>
       </c>
-      <c r="G2" t="n">
-        <v>494445.793507835</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>494445.7935078348</v>
-      </c>
-      <c r="I2" t="n">
-        <v>494445.7935078347</v>
       </c>
       <c r="J2" t="n">
         <v>494445.7935078348</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.5909861256</v>
+        <v>494445.7935078347</v>
       </c>
       <c r="L2" t="n">
-        <v>575768.5909861254</v>
+        <v>494445.7935078348</v>
       </c>
       <c r="M2" t="n">
-        <v>494445.7935078349</v>
+        <v>494445.7935078348</v>
       </c>
       <c r="N2" t="n">
         <v>494445.7935078348</v>
       </c>
       <c r="O2" t="n">
-        <v>494445.7935078348</v>
+        <v>494445.793507835</v>
       </c>
       <c r="P2" t="n">
         <v>494445.7935078347</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129169.4540399834</v>
+        <v>185353.736857623</v>
       </c>
       <c r="C3" t="n">
-        <v>91727.68497750063</v>
+        <v>38634.2540022977</v>
       </c>
       <c r="D3" t="n">
         <v>35221.70711368781</v>
       </c>
       <c r="E3" t="n">
-        <v>902054.2017797716</v>
+        <v>902054.2017797717</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>93453.27414995238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.26529281546</v>
+        <v>1740.265292815432</v>
       </c>
       <c r="M3" t="n">
-        <v>114986.1981226575</v>
+        <v>205475.0301890555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392587.5583209045</v>
+        <v>378464.1896641562</v>
       </c>
       <c r="C4" t="n">
         <v>368187.1026115649</v>
       </c>
       <c r="D4" t="n">
-        <v>358961.1152399344</v>
+        <v>358961.1152399345</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
-        <v>52859.64909820929</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>52859.64909820928</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36549.82510289051</v>
+        <v>37820.89280893489</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26485,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26494,10 +26496,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35699.60701542639</v>
+        <v>-7618.847892436417</v>
       </c>
       <c r="C6" t="n">
-        <v>95369.22211848613</v>
+        <v>148462.6530936891</v>
       </c>
       <c r="D6" t="n">
-        <v>160643.5214618222</v>
+        <v>160643.5214618221</v>
       </c>
       <c r="E6" t="n">
-        <v>-491685.1519354216</v>
+        <v>-491685.1519354218</v>
       </c>
       <c r="F6" t="n">
+        <v>410369.0498443501</v>
+      </c>
+      <c r="G6" t="n">
         <v>410369.04984435</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>410369.0498443498</v>
+      </c>
+      <c r="I6" t="n">
         <v>410369.0498443502</v>
       </c>
-      <c r="H6" t="n">
-        <v>410369.04984435</v>
-      </c>
-      <c r="I6" t="n">
-        <v>410369.04984435</v>
-      </c>
       <c r="J6" t="n">
-        <v>410369.04984435</v>
+        <v>410369.0498443501</v>
       </c>
       <c r="K6" t="n">
-        <v>333072.1494842503</v>
+        <v>410369.0498443499</v>
       </c>
       <c r="L6" t="n">
-        <v>424785.1583413871</v>
+        <v>408628.7845515346</v>
       </c>
       <c r="M6" t="n">
-        <v>295382.8517216927</v>
+        <v>204894.0196552946</v>
       </c>
       <c r="N6" t="n">
         <v>410369.04984435</v>
       </c>
       <c r="O6" t="n">
+        <v>410369.0498443502</v>
+      </c>
+      <c r="P6" t="n">
         <v>410369.04984435</v>
-      </c>
-      <c r="P6" t="n">
-        <v>410369.0498443499</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.0470230683723</v>
+        <v>192.3528811438025</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26814,22 +26816,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.0470230683723</v>
+        <v>192.3528811438025</v>
       </c>
       <c r="C3" t="n">
-        <v>100.7330150576219</v>
+        <v>42.42715698219168</v>
       </c>
       <c r="D3" t="n">
         <v>38.63295208268428</v>
       </c>
       <c r="E3" t="n">
-        <v>816.3637103846196</v>
+        <v>816.3637103846198</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711323</v>
+        <v>6.876045741711209</v>
       </c>
       <c r="M4" t="n">
-        <v>461.413934457944</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>333.95597166351</v>
+        <v>331.55546967752</v>
       </c>
       <c r="I2" t="n">
-        <v>189.7006218042012</v>
+        <v>180.6640927852946</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>116.0185397991652</v>
+        <v>101.2946991666798</v>
       </c>
       <c r="S2" t="n">
-        <v>196.7402845081728</v>
+        <v>191.3989991176447</v>
       </c>
       <c r="T2" t="n">
-        <v>220.7368913993804</v>
+        <v>219.7108254949575</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3025423074527</v>
+        <v>251.2837906747048</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.0551896041579</v>
+        <v>136.9297770037693</v>
       </c>
       <c r="H3" t="n">
-        <v>109.4508070214346</v>
+        <v>108.2395853282073</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46956557701203</v>
+        <v>75.15163174784102</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.25623360022918</v>
+        <v>74.46965127083493</v>
       </c>
       <c r="S3" t="n">
-        <v>166.3276131538892</v>
+        <v>163.9981291071963</v>
       </c>
       <c r="T3" t="n">
-        <v>199.00256629671</v>
+        <v>198.4970655083013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9224131626161</v>
+        <v>225.9141623336432</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7492552184994</v>
+        <v>167.6441135072158</v>
       </c>
       <c r="H4" t="n">
-        <v>160.0780251539827</v>
+        <v>159.1432197572979</v>
       </c>
       <c r="I4" t="n">
-        <v>148.1811707910259</v>
+        <v>145.0192727826075</v>
       </c>
       <c r="J4" t="n">
-        <v>76.26928342154604</v>
+        <v>68.83576443379815</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.92094276837017</v>
+        <v>57.11675819898021</v>
       </c>
       <c r="R4" t="n">
-        <v>166.4245950477241</v>
+        <v>161.6970413749195</v>
       </c>
       <c r="S4" t="n">
-        <v>219.804005525135</v>
+        <v>217.9716722475842</v>
       </c>
       <c r="T4" t="n">
-        <v>226.9127681030006</v>
+        <v>226.4635262456981</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3058444034022</v>
+        <v>286.3001094009686</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27901,13 +27903,13 @@
         <v>80.82478127302545</v>
       </c>
       <c r="S8" t="n">
-        <v>183.9732413877317</v>
+        <v>177.0971956460203</v>
       </c>
       <c r="T8" t="n">
-        <v>211.4082847685968</v>
+        <v>218.2843305103083</v>
       </c>
       <c r="U8" t="n">
-        <v>251.25772109189</v>
+        <v>245.2013000025906</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>363.6746795891696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,16 +27940,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7554212974788</v>
+        <v>130.6990002081793</v>
       </c>
       <c r="H9" t="n">
-        <v>99.67963052837456</v>
+        <v>106.555676270086</v>
       </c>
       <c r="I9" t="n">
         <v>69.14859536897993</v>
@@ -27977,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>63.64430312062375</v>
+        <v>56.76825737891232</v>
       </c>
       <c r="S9" t="n">
         <v>160.7595483346515</v>
       </c>
       <c r="T9" t="n">
-        <v>197.794289657069</v>
+        <v>190.9182439153576</v>
       </c>
       <c r="U9" t="n">
         <v>225.9026915634925</v>
       </c>
       <c r="V9" t="n">
-        <v>226.7441660601258</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>160.6218937983382</v>
+        <v>167.4979395400497</v>
       </c>
       <c r="H10" t="n">
         <v>157.843600303766</v>
@@ -28032,7 +28034,7 @@
         <v>140.6234229336467</v>
       </c>
       <c r="J10" t="n">
-        <v>58.50126495514995</v>
+        <v>51.62521921343851</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.0006359884725</v>
+        <v>38.82026064088451</v>
       </c>
       <c r="R10" t="n">
-        <v>148.2484825277183</v>
+        <v>155.1245282694298</v>
       </c>
       <c r="S10" t="n">
         <v>215.424258656152</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.5282322627954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5388825047974761</v>
+        <v>0.7732779141459392</v>
       </c>
       <c r="H2" t="n">
-        <v>5.518830452257154</v>
+        <v>7.919332438247102</v>
       </c>
       <c r="I2" t="n">
-        <v>20.77526776620472</v>
+        <v>29.81179678511135</v>
       </c>
       <c r="J2" t="n">
-        <v>45.73697899155483</v>
+        <v>65.63099636574397</v>
       </c>
       <c r="K2" t="n">
-        <v>68.54787541963201</v>
+        <v>98.36385047154158</v>
       </c>
       <c r="L2" t="n">
-        <v>85.03970087582779</v>
+        <v>122.0290544365854</v>
       </c>
       <c r="M2" t="n">
-        <v>94.6230526205199</v>
+        <v>135.7808355422782</v>
       </c>
       <c r="N2" t="n">
-        <v>96.15415253727573</v>
+        <v>137.9779114158454</v>
       </c>
       <c r="O2" t="n">
-        <v>90.79563963019582</v>
+        <v>130.2886291570567</v>
       </c>
       <c r="P2" t="n">
-        <v>77.49197779300812</v>
+        <v>111.1983306515788</v>
       </c>
       <c r="Q2" t="n">
-        <v>58.19324808994849</v>
+        <v>83.50531535122734</v>
       </c>
       <c r="R2" t="n">
-        <v>33.85057814198449</v>
+        <v>48.57441877446989</v>
       </c>
       <c r="S2" t="n">
-        <v>12.2797850780725</v>
+        <v>17.62107046860061</v>
       </c>
       <c r="T2" t="n">
-        <v>2.358958164750953</v>
+        <v>3.38502406917385</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04311060038379808</v>
+        <v>0.06186223313167512</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2883275590527253</v>
+        <v>0.4137401594413865</v>
       </c>
       <c r="H3" t="n">
-        <v>2.784637215061847</v>
+        <v>3.995858908289181</v>
       </c>
       <c r="I3" t="n">
-        <v>9.927067274403043</v>
+        <v>14.24500110357406</v>
       </c>
       <c r="J3" t="n">
-        <v>27.2406313576963</v>
+        <v>39.08937181810047</v>
       </c>
       <c r="K3" t="n">
-        <v>46.5585778142289</v>
+        <v>66.80996250067338</v>
       </c>
       <c r="L3" t="n">
-        <v>62.60375355660161</v>
+        <v>89.83423944362211</v>
       </c>
       <c r="M3" t="n">
-        <v>73.05562757226288</v>
+        <v>104.8323202233723</v>
       </c>
       <c r="N3" t="n">
-        <v>74.9891926502963</v>
+        <v>107.6069198013806</v>
       </c>
       <c r="O3" t="n">
-        <v>68.60046094707539</v>
+        <v>98.4393089000741</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05791783349805</v>
+        <v>79.00622395508373</v>
       </c>
       <c r="Q3" t="n">
-        <v>36.80475999416894</v>
+        <v>52.81356842272857</v>
       </c>
       <c r="R3" t="n">
-        <v>17.90160055241395</v>
+        <v>25.6881828818082</v>
       </c>
       <c r="S3" t="n">
-        <v>5.355557949948644</v>
+        <v>7.685041996641538</v>
       </c>
       <c r="T3" t="n">
-        <v>1.162162398111642</v>
+        <v>1.667663186520325</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01896891835873193</v>
+        <v>0.02721974733167018</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2417241399593598</v>
+        <v>0.3468658512429225</v>
       </c>
       <c r="H4" t="n">
-        <v>2.149147353456855</v>
+        <v>3.083952750141623</v>
       </c>
       <c r="I4" t="n">
-        <v>7.269304136232387</v>
+        <v>10.4312021446508</v>
       </c>
       <c r="J4" t="n">
-        <v>17.08989669512674</v>
+        <v>24.52341568287462</v>
       </c>
       <c r="K4" t="n">
-        <v>28.08395007891471</v>
+        <v>40.29950526258681</v>
       </c>
       <c r="L4" t="n">
-        <v>35.93778713541246</v>
+        <v>51.56949210206142</v>
       </c>
       <c r="M4" t="n">
-        <v>37.89135768472038</v>
+        <v>54.37279884528829</v>
       </c>
       <c r="N4" t="n">
-        <v>36.99038589032642</v>
+        <v>53.07993521792835</v>
       </c>
       <c r="O4" t="n">
-        <v>34.1666084371648</v>
+        <v>49.02791141022692</v>
       </c>
       <c r="P4" t="n">
-        <v>29.23543598199383</v>
+        <v>41.95184804487127</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.24110048332421</v>
+        <v>29.04528505271418</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8687963294454</v>
+        <v>15.59635000224995</v>
       </c>
       <c r="S4" t="n">
-        <v>4.212592511837205</v>
+        <v>6.04492578938802</v>
       </c>
       <c r="T4" t="n">
-        <v>1.032821325280901</v>
+        <v>1.482063182583396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01318495308869237</v>
+        <v>0.01891995552234125</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32804,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33506,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33907,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34390,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M10" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36850,10 +36852,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.4358392395069</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,19 +37080,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>627.9163536265528</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37555,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1929846.054039015</v>
+        <v>1908121.076603793</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12054037.64689931</v>
+        <v>12054037.6468993</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4181370.788344816</v>
+        <v>4181370.788344817</v>
       </c>
     </row>
     <row r="9">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="T9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>178.3025074251559</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>85.85883363046862</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.0025634447712</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.37445137896816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>332.9457957629329</v>
+        <v>266.0286480233247</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>28.43919684076946</v>
       </c>
       <c r="Y16" t="n">
-        <v>119.8962688081998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>205.9213958446538</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>271.775411412472</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>96.50675189249552</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>265.224061866369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.790379538870097</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>116.93881574185</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>1.306988578406781</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>128.5903119004996</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>251.2852794514161</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>18.26879610204004</v>
+        <v>120.7389995830103</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>221.7465305550411</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>276.7320215053124</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>31.73725475703721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>260.6995800236712</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>77.4263979403581</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>184.1739595194682</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>77.31354443380458</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785993</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,16 +3031,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>184.1477353216911</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>16.33302702637999</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>255.2654507318374</v>
       </c>
       <c r="V34" t="n">
-        <v>156.1900722406605</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>370.5023353192281</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>131.9809553984406</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>135.8350498199977</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3483,13 +3483,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>210.1089145855752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>187.6301673233151</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>200.5864956139558</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>194.7000303319008</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>296.0128616828167</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>73.02167259953974</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4033,10 +4033,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>123.5007337965309</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>151.4318292321323</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>69.42567912201427</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>5.230025484176902</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
         <v>14.44108515774386</v>
@@ -4804,19 +4804,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
@@ -4828,28 +4828,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.667680719235332</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C9" t="n">
-        <v>6.667680719235332</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D9" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E9" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
         <v>0.5500836593369149</v>
@@ -4883,22 +4883,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4907,28 +4907,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T9" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U9" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V9" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W9" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X9" t="n">
-        <v>6.667680719235332</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.667680719235332</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M10" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O10" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O10" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W10" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X10" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>1015.867262682234</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>657.6015640754838</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3128.589058560035</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3128.589058560035</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2797.526171216464</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.526171216464</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.060412955384</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.921080979572</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>313.9544330261738</v>
+        <v>504.1638263336251</v>
       </c>
       <c r="C13" t="n">
-        <v>313.9544330261738</v>
+        <v>335.2276434057183</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>335.2276434057183</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>335.2276434057183</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>335.2276434057183</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>167.5248067804372</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5232,19 +5232,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y13" t="n">
-        <v>313.9544330261738</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1998.104470293511</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C14" t="n">
-        <v>1629.141953353099</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="D14" t="n">
-        <v>1270.876254746349</v>
+        <v>1500.866776612725</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539437</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X14" t="n">
-        <v>2388.243802269323</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y14" t="n">
-        <v>1998.104470293511</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C16" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D16" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E16" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F16" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>562.0806046698464</v>
       </c>
       <c r="Y16" t="n">
-        <v>331.5406302391191</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1458.811090838975</v>
+        <v>1865.035106955553</v>
       </c>
       <c r="C17" t="n">
-        <v>1089.848573898563</v>
+        <v>1496.072590015141</v>
       </c>
       <c r="D17" t="n">
-        <v>731.582875291813</v>
+        <v>1137.806891408391</v>
       </c>
       <c r="E17" t="n">
-        <v>523.5814653477182</v>
+        <v>752.0186388101465</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>341.032734020539</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>341.032734020539</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2961.784676410103</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W17" t="n">
-        <v>2609.016021139988</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>2235.550262878909</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.410930903097</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>384.3315924698002</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
-        <v>384.3315924698002</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W19" t="n">
-        <v>612.3211433678175</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X19" t="n">
-        <v>384.3315924698002</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y19" t="n">
-        <v>384.3315924698002</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1636.624422581789</v>
+        <v>1638.36025634881</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1269.397739408398</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>911.1320408016475</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>525.3437882034032</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>114.3578834137956</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>114.3578834137956</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5764,7 +5764,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>3097.195137235408</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V20" t="n">
-        <v>2766.132249891837</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W20" t="n">
-        <v>2413.363594621723</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="X20" t="n">
-        <v>2413.363594621723</v>
+        <v>2415.099428388743</v>
       </c>
       <c r="Y20" t="n">
-        <v>2023.224262645911</v>
+        <v>2024.960096412931</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5834,16 +5834,16 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>845.4915543310562</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C22" t="n">
-        <v>676.5553714031494</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
-        <v>676.5553714031494</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>528.6422778207562</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>381.7523303228459</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>214.0494936975648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>67.83230691542261</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5913,16 +5913,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1913.730159486768</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672848</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368017</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V22" t="n">
-        <v>1134.908724368017</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W22" t="n">
-        <v>845.4915543310562</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X22" t="n">
-        <v>845.4915543310562</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y22" t="n">
-        <v>845.4915543310562</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1238.038871968309</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C23" t="n">
-        <v>1238.038871968309</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D23" t="n">
-        <v>879.773173361559</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E23" t="n">
-        <v>493.9849207633147</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>320.3356310295734</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218343</v>
@@ -5989,22 +5989,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6022,19 +6022,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539437</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269323</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008243</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.638712032431</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.8553933260938</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C25" t="n">
-        <v>231.8553933260938</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D25" t="n">
-        <v>231.8553933260938</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E25" t="n">
-        <v>231.8553933260938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F25" t="n">
-        <v>84.96544582818348</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G25" t="n">
-        <v>84.96544582818348</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218343</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696239</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.8553933260938</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1384.829779622645</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C26" t="n">
-        <v>1015.867262682233</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D26" t="n">
-        <v>1015.867262682233</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
-        <v>630.079010083989</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>630.079010083989</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6256,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2535.034709923658</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2161.568951662578</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y26" t="n">
-        <v>1771.429619686767</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="27">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.5548741173881</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C28" t="n">
-        <v>804.6186911894812</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E28" t="n">
         <v>624.6477645191717</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V28" t="n">
-        <v>1672.610059882606</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.192889845645</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.203338947628</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y28" t="n">
-        <v>1155.203338947628</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2065.110222835253</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>1696.147705894841</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>3215.315153136266</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X29" t="n">
-        <v>2841.849394875187</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2451.710062899375</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>463.6594280995014</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C31" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D31" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E31" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F31" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G31" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
         <v>315.6219318279954</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>866.1004720732712</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>645.3078929297411</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1252.833343223196</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C32" t="n">
-        <v>883.8708262827847</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>883.8708262827847</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>498.0825736845405</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>498.0825736845405</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>83.01012352953694</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>83.01012352953694</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.03827352421</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.57251526313</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.433183287318</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>941.4970410294717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C34" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
@@ -6885,25 +6885,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U34" t="n">
-        <v>1837.464090846021</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V34" t="n">
-        <v>1679.69634110798</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W34" t="n">
-        <v>1390.279171071019</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X34" t="n">
-        <v>1162.289620173002</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y34" t="n">
-        <v>941.4970410294717</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2266.429418274562</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C35" t="n">
-        <v>1897.46690133415</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D35" t="n">
-        <v>1539.2012027274</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>1153.412950129155</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520488</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520488</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250373</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X35" t="n">
-        <v>2656.568750250373</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y35" t="n">
-        <v>2266.429418274562</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2320.988771034578</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034578</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622242</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039849</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541939</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888694</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>2320.988771034578</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>2320.988771034578</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X37" t="n">
-        <v>2320.988771034578</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y37" t="n">
-        <v>2320.988771034578</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1754.744438482648</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C38" t="n">
-        <v>1754.744438482648</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>1396.478739875897</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E38" t="n">
-        <v>1010.690487277653</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7192,34 +7192,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792696</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.483610522581</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>2531.483610522581</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>2141.34427854677</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.3980557622425</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C40" t="n">
-        <v>678.4618728343356</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D40" t="n">
-        <v>528.3452334219999</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1735.608663915319</v>
+        <v>1443.165584840568</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.505797040963</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="V40" t="n">
-        <v>1249.839099736012</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W40" t="n">
-        <v>1249.839099736012</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X40" t="n">
-        <v>1249.839099736012</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.046520592482</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1032.061124352532</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>663.0986074121199</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>663.0986074121199</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>663.0986074121199</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>663.0986074121199</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653545</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392465</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1418.660964416653</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.9306290998774</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C43" t="n">
-        <v>748.9944461719705</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396067</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.361223971664</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W43" t="n">
-        <v>1548.361223971664</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X43" t="n">
-        <v>1320.371673073647</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y43" t="n">
-        <v>1099.579093930117</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1160.843385122603</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C44" t="n">
-        <v>791.8808681821918</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D44" t="n">
-        <v>791.8808681821918</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
         <v>406.0926155839475</v>
@@ -7645,31 +7645,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U44" t="n">
-        <v>2994.879858037302</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>2663.816970693731</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W44" t="n">
-        <v>2311.048315423617</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X44" t="n">
-        <v>1937.582557162537</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.443225186725</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>657.6489837069648</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C46" t="n">
-        <v>657.6489837069648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D46" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1832.1812368216</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1832.1812368216</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1832.1812368216</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1577.496748615713</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>1288.079578578752</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X46" t="n">
-        <v>1060.090027680735</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y46" t="n">
-        <v>839.2974485372046</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>115.4149081609423</v>
+        <v>115.4149081609425</v>
       </c>
       <c r="K2" t="n">
-        <v>121.726000573439</v>
+        <v>121.7260005734393</v>
       </c>
       <c r="L2" t="n">
-        <v>113.7373605334018</v>
+        <v>113.7373605334023</v>
       </c>
       <c r="M2" t="n">
-        <v>94.56539768499451</v>
+        <v>94.56539768499496</v>
       </c>
       <c r="N2" t="n">
-        <v>91.43515218074552</v>
+        <v>91.435152180746</v>
       </c>
       <c r="O2" t="n">
-        <v>99.80958226463002</v>
+        <v>99.80958226463048</v>
       </c>
       <c r="P2" t="n">
-        <v>120.0346651036907</v>
+        <v>120.0346651036911</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.8003745232222</v>
+        <v>138.8003745232224</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>87.74825484856622</v>
+        <v>87.74825484856635</v>
       </c>
       <c r="K3" t="n">
-        <v>71.03147647368561</v>
+        <v>71.03147647368584</v>
       </c>
       <c r="L3" t="n">
-        <v>48.72014033625207</v>
+        <v>48.72014033625237</v>
       </c>
       <c r="M3" t="n">
-        <v>37.30171369864597</v>
+        <v>37.30171369864632</v>
       </c>
       <c r="N3" t="n">
-        <v>23.73479228195269</v>
+        <v>23.73479228195305</v>
       </c>
       <c r="O3" t="n">
-        <v>44.15693554437034</v>
+        <v>44.15693554437067</v>
       </c>
       <c r="P3" t="n">
-        <v>54.96818345924652</v>
+        <v>54.96818345924679</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.16820566329295</v>
+        <v>87.16820566329312</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>88.71375290794857</v>
+        <v>88.7137529079487</v>
       </c>
       <c r="L4" t="n">
-        <v>83.31518417917687</v>
+        <v>83.31518417917704</v>
       </c>
       <c r="M4" t="n">
-        <v>84.55298510231677</v>
+        <v>84.55298510231694</v>
       </c>
       <c r="N4" t="n">
-        <v>74.60560924730484</v>
+        <v>74.60560924730501</v>
       </c>
       <c r="O4" t="n">
-        <v>89.42862704161587</v>
+        <v>89.42862704161604</v>
       </c>
       <c r="P4" t="n">
-        <v>95.77615600427634</v>
+        <v>95.77615600427649</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>87.75711748056034</v>
+        <v>94.63316322227178</v>
       </c>
       <c r="K8" t="n">
-        <v>87.15018762786912</v>
+        <v>86.87236759790098</v>
       </c>
       <c r="L8" t="n">
         <v>69.18871014946336</v>
@@ -8467,7 +8467,7 @@
         <v>33.28939173564609</v>
       </c>
       <c r="O8" t="n">
-        <v>51.50241520771151</v>
+        <v>44.90418949596821</v>
       </c>
       <c r="P8" t="n">
         <v>73.17418265679427</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>71.27546419416532</v>
+        <v>78.15150993587676</v>
       </c>
       <c r="K9" t="n">
         <v>42.87685349782204</v>
       </c>
       <c r="L9" t="n">
-        <v>17.46100096066813</v>
+        <v>10.86277524892485</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>2.673277653404995</v>
       </c>
       <c r="P9" t="n">
-        <v>28.54993647957522</v>
+        <v>28.27211644960708</v>
       </c>
       <c r="Q9" t="n">
         <v>64.91185269891416</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>71.73099563173358</v>
+        <v>78.60704137344501</v>
       </c>
       <c r="L10" t="n">
         <v>68.1813275360516</v>
       </c>
       <c r="M10" t="n">
-        <v>68.51559706360761</v>
+        <v>61.63955132189618</v>
       </c>
       <c r="N10" t="n">
-        <v>59.11305144985138</v>
+        <v>52.23700570813995</v>
       </c>
       <c r="O10" t="n">
         <v>75.64364695151268</v>
       </c>
       <c r="P10" t="n">
-        <v>78.09707910265161</v>
+        <v>84.97312484436304</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23263,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>203.6278626471059</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>118.0591365091515</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>44.75245146954954</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.2102019731266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>48.98457430932888</v>
+        <v>115.9017220489371</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>197.2704585482677</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.688384543895</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>176.008974227608</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>22.8323529748485</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>21.29893647022203</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>288.8173848484504</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>134.056356217052</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>95.0454318314313</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>75.50340795433992</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>278.2857338412119</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>159.6364462020373</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24262,13 +24262,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>126.4862188122807</v>
+        <v>24.01601533131053</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>189.1751950984123</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>92.99907917315659</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>116.8782182611751</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24660,16 +24660,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>25.82341831291984</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>277.2566436803248</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>222.7020862222432</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>19.03887597603351</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>181.1251564493164</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>25.24390274654596</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>30.94638747377545</v>
       </c>
       <c r="V34" t="n">
-        <v>95.94757108316747</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>36.37371042248338</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>71.9370147411795</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>43.99693036193955</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02872873825282</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>219.2458784183963</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25450,13 +25450,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>18.96245366221339</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.43761299192724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>114.9088639706368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>75.59380041867261</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25842,13 +25842,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>127.4944381623711</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>234.8061094239213</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>97.82114197661356</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.538999847265</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>882169.2786017628</v>
+        <v>882169.278601763</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708193.2123655725</v>
+        <v>708193.2123655723</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708193.2123655722</v>
+        <v>708193.2123655725</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708193.2123655722</v>
+        <v>708193.2123655723</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>708193.2123655723</v>
+        <v>708193.2123655722</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708193.2123655723</v>
+        <v>708193.2123655722</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708193.2123655723</v>
+        <v>708193.2123655722</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>708193.2123655723</v>
+        <v>708193.2123655725</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708193.2123655725</v>
+        <v>708193.2123655723</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708193.2123655723</v>
+        <v>708193.2123655722</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594019.9714382776</v>
+        <v>594019.971438278</v>
       </c>
       <c r="C2" t="n">
-        <v>594029.8145386983</v>
+        <v>594029.8145386979</v>
       </c>
       <c r="D2" t="n">
         <v>594832.4105830896</v>
       </c>
       <c r="E2" t="n">
-        <v>494445.7935078347</v>
+        <v>494445.7935078348</v>
       </c>
       <c r="F2" t="n">
-        <v>494445.7935078349</v>
+        <v>494445.7935078348</v>
       </c>
       <c r="G2" t="n">
-        <v>494445.7935078348</v>
+        <v>494445.7935078351</v>
       </c>
       <c r="H2" t="n">
-        <v>494445.7935078347</v>
+        <v>494445.7935078351</v>
       </c>
       <c r="I2" t="n">
-        <v>494445.7935078348</v>
+        <v>494445.7935078352</v>
       </c>
       <c r="J2" t="n">
         <v>494445.7935078348</v>
       </c>
       <c r="K2" t="n">
+        <v>494445.7935078346</v>
+      </c>
+      <c r="L2" t="n">
         <v>494445.7935078347</v>
       </c>
-      <c r="L2" t="n">
-        <v>494445.7935078348</v>
-      </c>
       <c r="M2" t="n">
-        <v>494445.7935078348</v>
+        <v>494445.7935078347</v>
       </c>
       <c r="N2" t="n">
-        <v>494445.7935078348</v>
+        <v>494445.7935078347</v>
       </c>
       <c r="O2" t="n">
         <v>494445.793507835</v>
       </c>
       <c r="P2" t="n">
-        <v>494445.7935078347</v>
+        <v>494445.7935078348</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185353.736857623</v>
+        <v>185353.7368576223</v>
       </c>
       <c r="C3" t="n">
-        <v>38634.2540022977</v>
+        <v>38634.25400229831</v>
       </c>
       <c r="D3" t="n">
         <v>35221.70711368781</v>
       </c>
       <c r="E3" t="n">
-        <v>902054.2017797717</v>
+        <v>902054.2017797718</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.265292815432</v>
+        <v>1740.265292815547</v>
       </c>
       <c r="M3" t="n">
         <v>205475.0301890555</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378464.1896641562</v>
+        <v>378464.1896641563</v>
       </c>
       <c r="C4" t="n">
         <v>368187.1026115649</v>
       </c>
       <c r="D4" t="n">
-        <v>358961.1152399345</v>
+        <v>358961.1152399344</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37820.89280893489</v>
+        <v>37820.89280893488</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26487,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7618.847892436417</v>
+        <v>-7661.444848067504</v>
       </c>
       <c r="C6" t="n">
-        <v>148462.6530936891</v>
+        <v>148420.3955553119</v>
       </c>
       <c r="D6" t="n">
-        <v>160643.5214618221</v>
+        <v>160628.9396491147</v>
       </c>
       <c r="E6" t="n">
-        <v>-491685.1519354218</v>
+        <v>-495161.3412334828</v>
       </c>
       <c r="F6" t="n">
-        <v>410369.0498443501</v>
+        <v>406892.860546289</v>
       </c>
       <c r="G6" t="n">
-        <v>410369.04984435</v>
+        <v>406892.8605462892</v>
       </c>
       <c r="H6" t="n">
-        <v>410369.0498443498</v>
+        <v>406892.8605462893</v>
       </c>
       <c r="I6" t="n">
-        <v>410369.0498443502</v>
+        <v>406892.8605462894</v>
       </c>
       <c r="J6" t="n">
-        <v>410369.0498443501</v>
+        <v>406892.860546289</v>
       </c>
       <c r="K6" t="n">
-        <v>410369.0498443499</v>
+        <v>406892.8605462888</v>
       </c>
       <c r="L6" t="n">
-        <v>408628.7845515346</v>
+        <v>405152.5952534733</v>
       </c>
       <c r="M6" t="n">
-        <v>204894.0196552946</v>
+        <v>201417.8303572333</v>
       </c>
       <c r="N6" t="n">
-        <v>410369.04984435</v>
+        <v>406892.8605462889</v>
       </c>
       <c r="O6" t="n">
-        <v>410369.0498443502</v>
+        <v>406892.8605462891</v>
       </c>
       <c r="P6" t="n">
-        <v>410369.04984435</v>
+        <v>406892.860546289</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.3528811438025</v>
+        <v>192.3528811438019</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26798,7 +26798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26816,7 +26816,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.3528811438025</v>
+        <v>192.3528811438019</v>
       </c>
       <c r="C3" t="n">
-        <v>42.42715698219168</v>
+        <v>42.42715698219234</v>
       </c>
       <c r="D3" t="n">
         <v>38.63295208268428</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.5254096605812</v>
+        <v>824.5254096605814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711209</v>
+        <v>6.876045741711664</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605812</v>
+        <v>824.5254096605814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605812</v>
+        <v>824.5254096605814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.55546967752</v>
+        <v>331.5554696775201</v>
       </c>
       <c r="I2" t="n">
-        <v>180.6640927852946</v>
+        <v>180.6640927852947</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>101.2946991666798</v>
+        <v>101.2946991666799</v>
       </c>
       <c r="S2" t="n">
-        <v>191.3989991176447</v>
+        <v>191.3989991176448</v>
       </c>
       <c r="T2" t="n">
         <v>219.7108254949575</v>
@@ -27478,7 +27478,7 @@
         <v>108.2395853282073</v>
       </c>
       <c r="I3" t="n">
-        <v>75.15163174784102</v>
+        <v>75.15163174784107</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>74.46965127083493</v>
+        <v>74.46965127083502</v>
       </c>
       <c r="S3" t="n">
         <v>163.9981291071963</v>
@@ -27554,13 +27554,13 @@
         <v>167.6441135072158</v>
       </c>
       <c r="H4" t="n">
-        <v>159.1432197572979</v>
+        <v>159.143219757298</v>
       </c>
       <c r="I4" t="n">
         <v>145.0192727826075</v>
       </c>
       <c r="J4" t="n">
-        <v>68.83576443379815</v>
+        <v>68.83576443379823</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.11675819898021</v>
+        <v>57.11675819898031</v>
       </c>
       <c r="R4" t="n">
-        <v>161.6970413749195</v>
+        <v>161.6970413749196</v>
       </c>
       <c r="S4" t="n">
-        <v>217.9716722475842</v>
+        <v>217.9716722475843</v>
       </c>
       <c r="T4" t="n">
         <v>226.4635262456981</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>358.3968460292961</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>80.82478127302545</v>
+        <v>74.76836018372603</v>
       </c>
       <c r="S8" t="n">
-        <v>177.0971956460203</v>
+        <v>183.9732413877317</v>
       </c>
       <c r="T8" t="n">
         <v>218.2843305103083</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2013000025906</v>
+        <v>251.25772109189</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27937,16 +27937,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G9" t="n">
-        <v>130.6990002081793</v>
+        <v>136.7554212974788</v>
       </c>
       <c r="H9" t="n">
         <v>106.555676270086</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.76825737891232</v>
+        <v>63.64430312062375</v>
       </c>
       <c r="S9" t="n">
-        <v>160.7595483346515</v>
+        <v>154.7031272453521</v>
       </c>
       <c r="T9" t="n">
-        <v>190.9182439153576</v>
+        <v>197.794289657069</v>
       </c>
       <c r="U9" t="n">
         <v>225.9026915634925</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G10" t="n">
         <v>167.4979395400497</v>
@@ -28034,7 +28034,7 @@
         <v>140.6234229336467</v>
       </c>
       <c r="J10" t="n">
-        <v>51.62521921343851</v>
+        <v>58.50126495514995</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.82026064088451</v>
+        <v>44.87668173018394</v>
       </c>
       <c r="R10" t="n">
         <v>155.1245282694298</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7732779141459392</v>
+        <v>0.7732779141459365</v>
       </c>
       <c r="H2" t="n">
-        <v>7.919332438247102</v>
+        <v>7.919332438247074</v>
       </c>
       <c r="I2" t="n">
-        <v>29.81179678511135</v>
+        <v>29.81179678511124</v>
       </c>
       <c r="J2" t="n">
-        <v>65.63099636574397</v>
+        <v>65.63099636574374</v>
       </c>
       <c r="K2" t="n">
-        <v>98.36385047154158</v>
+        <v>98.36385047154126</v>
       </c>
       <c r="L2" t="n">
-        <v>122.0290544365854</v>
+        <v>122.029054436585</v>
       </c>
       <c r="M2" t="n">
-        <v>135.7808355422782</v>
+        <v>135.7808355422778</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9779114158454</v>
+        <v>137.9779114158449</v>
       </c>
       <c r="O2" t="n">
-        <v>130.2886291570567</v>
+        <v>130.2886291570562</v>
       </c>
       <c r="P2" t="n">
-        <v>111.1983306515788</v>
+        <v>111.1983306515784</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.50531535122734</v>
+        <v>83.50531535122705</v>
       </c>
       <c r="R2" t="n">
-        <v>48.57441877446989</v>
+        <v>48.57441877446973</v>
       </c>
       <c r="S2" t="n">
-        <v>17.62107046860061</v>
+        <v>17.62107046860055</v>
       </c>
       <c r="T2" t="n">
-        <v>3.38502406917385</v>
+        <v>3.385024069173839</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06186223313167512</v>
+        <v>0.06186223313167491</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4137401594413865</v>
+        <v>0.4137401594413851</v>
       </c>
       <c r="H3" t="n">
-        <v>3.995858908289181</v>
+        <v>3.995858908289168</v>
       </c>
       <c r="I3" t="n">
-        <v>14.24500110357406</v>
+        <v>14.24500110357401</v>
       </c>
       <c r="J3" t="n">
-        <v>39.08937181810047</v>
+        <v>39.08937181810035</v>
       </c>
       <c r="K3" t="n">
-        <v>66.80996250067338</v>
+        <v>66.80996250067315</v>
       </c>
       <c r="L3" t="n">
-        <v>89.83423944362211</v>
+        <v>89.83423944362181</v>
       </c>
       <c r="M3" t="n">
-        <v>104.8323202233723</v>
+        <v>104.832320223372</v>
       </c>
       <c r="N3" t="n">
-        <v>107.6069198013806</v>
+        <v>107.6069198013803</v>
       </c>
       <c r="O3" t="n">
-        <v>98.4393089000741</v>
+        <v>98.43930890007377</v>
       </c>
       <c r="P3" t="n">
-        <v>79.00622395508373</v>
+        <v>79.00622395508346</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.81356842272857</v>
+        <v>52.81356842272839</v>
       </c>
       <c r="R3" t="n">
-        <v>25.6881828818082</v>
+        <v>25.68818288180811</v>
       </c>
       <c r="S3" t="n">
-        <v>7.685041996641538</v>
+        <v>7.685041996641512</v>
       </c>
       <c r="T3" t="n">
-        <v>1.667663186520325</v>
+        <v>1.667663186520319</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02721974733167018</v>
+        <v>0.02721974733167009</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3468658512429225</v>
+        <v>0.3468658512429214</v>
       </c>
       <c r="H4" t="n">
-        <v>3.083952750141623</v>
+        <v>3.083952750141612</v>
       </c>
       <c r="I4" t="n">
-        <v>10.4312021446508</v>
+        <v>10.43120214465077</v>
       </c>
       <c r="J4" t="n">
-        <v>24.52341568287462</v>
+        <v>24.52341568287454</v>
       </c>
       <c r="K4" t="n">
-        <v>40.29950526258681</v>
+        <v>40.29950526258667</v>
       </c>
       <c r="L4" t="n">
-        <v>51.56949210206142</v>
+        <v>51.56949210206124</v>
       </c>
       <c r="M4" t="n">
-        <v>54.37279884528829</v>
+        <v>54.37279884528811</v>
       </c>
       <c r="N4" t="n">
-        <v>53.07993521792835</v>
+        <v>53.07993521792817</v>
       </c>
       <c r="O4" t="n">
-        <v>49.02791141022692</v>
+        <v>49.02791141022676</v>
       </c>
       <c r="P4" t="n">
-        <v>41.95184804487127</v>
+        <v>41.95184804487112</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.04528505271418</v>
+        <v>29.04528505271408</v>
       </c>
       <c r="R4" t="n">
-        <v>15.59635000224995</v>
+        <v>15.5963500022499</v>
       </c>
       <c r="S4" t="n">
-        <v>6.04492578938802</v>
+        <v>6.044925789388</v>
       </c>
       <c r="T4" t="n">
-        <v>1.482063182583396</v>
+        <v>1.482063182583391</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01891995552234125</v>
+        <v>0.01891995552234119</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33508,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33909,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34371,7 +34371,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L8" t="n">
         <v>6.876045741711437</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>6.598225711743296</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
